--- a/documentation/road_map.xlsx
+++ b/documentation/road_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sramk\Documents\vysoka_skola\bakalarka\gitKraken_bp\PluginIntoIntelliJ_BP\PluginIntoIntelliJ_BP\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053E5331-FEBD-4CE4-BF40-6A2807D2BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C902DC1-EC70-4C5C-89E3-E8EDE985FD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:O12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,38 +492,36 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -534,8 +532,6 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -565,8 +561,6 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -596,8 +590,6 @@
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -608,8 +600,6 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -620,8 +610,6 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -632,7 +620,7 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">

--- a/documentation/road_map.xlsx
+++ b/documentation/road_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sramk\Documents\vysoka_skola\bakalarka\gitKraken_bp\PluginIntoIntelliJ_BP\PluginIntoIntelliJ_BP\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C902DC1-EC70-4C5C-89E3-E8EDE985FD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DA7009-26AA-4FDA-AAE0-654B220264C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,24 +39,6 @@
     <t>Zjistit, jak pracovat s pluginem. Seznámení se s novými frameworky.</t>
   </si>
   <si>
-    <t>Vytvořit vstupní formulář.</t>
-  </si>
-  <si>
-    <t>Vytvořit algoritmus pro procházení .java souborů v projektu.</t>
-  </si>
-  <si>
-    <t>Procházet soubory projektu a ukládat důležité (ve formuláři zvolené) hodnoty.</t>
-  </si>
-  <si>
-    <t>Vygenerovat a uložit soubor podle zjištěných a uložených údajů.</t>
-  </si>
-  <si>
-    <t>Uložit informace vyplněné ve vstupním formuláři a dokázat je znovu vytáhnout a zobrazit ve formuláři.</t>
-  </si>
-  <si>
-    <t>Zkontrolovat, zda je plugin jedinečný a v čem.</t>
-  </si>
-  <si>
     <t>Zkontrolovat využití metodik a jejich efektivnost.</t>
   </si>
   <si>
@@ -78,10 +60,28 @@
     <t>Jazykové varianty.</t>
   </si>
   <si>
-    <t>Nechat zkontrolovat, jak je práce napsaná, zkontrolovat jedinečnost práce.</t>
-  </si>
-  <si>
     <t>Sepsat BP</t>
+  </si>
+  <si>
+    <t>Nechat zkontrolovat, jak je práce napsaná, zkontrolovat na plagiátorství.</t>
+  </si>
+  <si>
+    <t>Vytvořit minimum pro odstranění rizik.</t>
+  </si>
+  <si>
+    <t>Uložit informace vyplněné ve vstupním formuláři do souboru, znovu je vytáhnout a zobrazit ve formuláři.</t>
+  </si>
+  <si>
+    <t>Definovat, co má formulář obsahovat, vytvořit vstupní formulář.</t>
+  </si>
+  <si>
+    <t>Procházet projekt, vybírat .java soubory, ukládat je do struktury pro následnou práci s nimi.</t>
+  </si>
+  <si>
+    <t>Procházet soubory z bodu 9, vybírat z nich hodnoty podle konfiguračního souboru (hodnoty z formuláře) a ukládat je do PUML souboru</t>
+  </si>
+  <si>
+    <t>Kontrola na plagiátorství, zkontrolovat podle rešerše - jedinečnost.</t>
   </si>
 </sst>
 </file>
@@ -123,10 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -409,13 +412,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.21875" customWidth="1"/>
+    <col min="1" max="1" width="60.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="11.6640625" customWidth="1"/>
   </cols>
@@ -465,62 +468,62 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -529,8 +532,8 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -539,8 +542,8 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -558,8 +561,8 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
+      <c r="A14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -568,8 +571,8 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
+      <c r="A15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -587,8 +590,8 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
+      <c r="A16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -597,8 +600,8 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
+      <c r="A17" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -607,8 +610,8 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
+      <c r="A18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -617,17 +620,18 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
+      <c r="A19" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
+      <c r="A20" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>